--- a/output/PersonalHealthRecords/composition-docheader-cei-1.xlsx
+++ b/output/PersonalHealthRecords/composition-docheader-cei-1.xlsx
@@ -1342,7 +1342,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM57"/>
+  <dimension ref="A1:AL57"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>

--- a/output/PersonalHealthRecords/composition-docheader-cei-1.xlsx
+++ b/output/PersonalHealthRecords/composition-docheader-cei-1.xlsx
@@ -174,7 +174,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id {[]} {[]}
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -193,7 +193,7 @@
     <t>Composition.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {[]} {[]}
+    <t xml:space="preserve">Meta
 </t>
   </si>
   <si>
@@ -209,7 +209,7 @@
     <t>Composition.implicitRules</t>
   </si>
   <si>
-    <t xml:space="preserve">uri {[]} {[]}
+    <t xml:space="preserve">uri
 </t>
   </si>
   <si>
@@ -229,7 +229,7 @@
     <t>Composition.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code {[]} {[]}
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
@@ -242,7 +242,7 @@
     <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
-    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="en-AU"/&gt;</t>
+    <t>en-AU</t>
   </si>
   <si>
     <t>extensible</t>
@@ -264,7 +264,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
+    <t xml:space="preserve">Narrative
 </t>
   </si>
   <si>
@@ -294,7 +294,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource {[]} {[]}
+    <t xml:space="preserve">Resource
 </t>
   </si>
   <si>
@@ -316,7 +316,7 @@
     <t>Composition.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
@@ -339,7 +339,7 @@
     <t>compositionAuthorRole</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/composition-author-role]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/composition-author-role}
 </t>
   </si>
   <si>
@@ -360,7 +360,7 @@
     <t>informationRecipient</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/information-recipient]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/information-recipient}
 </t>
   </si>
   <si>
@@ -392,7 +392,7 @@
     <t>Composition.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
+    <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
@@ -451,7 +451,7 @@
     <t>Composition.type</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
@@ -515,7 +515,7 @@
     <t>Composition.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ihi-1]]}
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ihi-1)
 </t>
   </si>
   <si>
@@ -543,7 +543,7 @@
     <t>Composition.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Encounter]]}
+    <t xml:space="preserve">Reference(Encounter)
 </t>
   </si>
   <si>
@@ -568,7 +568,7 @@
     <t>Composition.date</t>
   </si>
   <si>
-    <t xml:space="preserve">dateTime {[]} {[]}
+    <t xml:space="preserve">dateTime
 </t>
   </si>
   <si>
@@ -596,7 +596,7 @@
     <t>Composition.author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ihi-1], CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/relatedperson-ihi-1]]}
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ihi-1|http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/relatedperson-ihi-1)
 </t>
   </si>
   <si>
@@ -621,7 +621,7 @@
     <t>Composition.title</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -665,7 +665,7 @@
     <t>Composition.attester</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement {[]} {[]}
+    <t xml:space="preserve">BackboneElement
 </t>
   </si>
   <si>
@@ -712,7 +712,7 @@
     <t>attesterRelatedParty</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/attester-related-party]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/attester-related-party}
 </t>
   </si>
   <si>
@@ -783,7 +783,7 @@
     <t>Composition.attester.party</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Patient], CanonicalType[http://hl7.org/fhir/StructureDefinition/Practitioner], CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization]]}
+    <t xml:space="preserve">Reference(Patient|Practitioner|Organization)
 </t>
   </si>
   <si>
@@ -808,7 +808,7 @@
     <t>Composition.custodian</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/organization-ident-1]]}
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/organization-ident-1)
 </t>
   </si>
   <si>
@@ -894,8 +894,8 @@
     <t>Composition.relatesTo.target[x]</t>
   </si>
   <si>
-    <t>Identifier {[]} {[]}
-Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Composition]]}</t>
+    <t>Identifier
+Reference(Composition)</t>
   </si>
   <si>
     <t>Target of the relationship</t>
@@ -961,7 +961,7 @@
     <t>Composition.event.period</t>
   </si>
   <si>
-    <t xml:space="preserve">Period {[]} {[]}
+    <t xml:space="preserve">Period
 </t>
   </si>
   <si>
@@ -974,7 +974,7 @@
     <t>Composition.event.detail</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Resource]]}
+    <t xml:space="preserve">Reference(Resource)
 </t>
   </si>
   <si>
@@ -1015,7 +1015,7 @@
     <t>sectionAuthor</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/section-author]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/section-author}
 </t>
   </si>
   <si>
@@ -1246,67 +1246,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
   </borders>

--- a/output/PersonalHealthRecords/composition-docheader-cei-1.xlsx
+++ b/output/PersonalHealthRecords/composition-docheader-cei-1.xlsx
@@ -174,7 +174,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">id {[]} {[]}
 </t>
   </si>
   <si>
@@ -193,7 +193,7 @@
     <t>Composition.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta
+    <t xml:space="preserve">Meta {[]} {[]}
 </t>
   </si>
   <si>
@@ -209,7 +209,7 @@
     <t>Composition.implicitRules</t>
   </si>
   <si>
-    <t xml:space="preserve">uri
+    <t xml:space="preserve">uri {[]} {[]}
 </t>
   </si>
   <si>
@@ -229,7 +229,7 @@
     <t>Composition.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code
+    <t xml:space="preserve">code {[]} {[]}
 </t>
   </si>
   <si>
@@ -242,7 +242,7 @@
     <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
-    <t>en-AU</t>
+    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="en-AU"/&gt;</t>
   </si>
   <si>
     <t>extensible</t>
@@ -264,7 +264,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative
+    <t xml:space="preserve">Narrative {[]} {[]}
 </t>
   </si>
   <si>
@@ -294,7 +294,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource
+    <t xml:space="preserve">Resource {[]} {[]}
 </t>
   </si>
   <si>
@@ -316,7 +316,7 @@
     <t>Composition.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
+    <t xml:space="preserve">Extension {[]} {[]}
 </t>
   </si>
   <si>
@@ -339,7 +339,7 @@
     <t>compositionAuthorRole</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/composition-author-role}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/composition-author-role]]} {[]}
 </t>
   </si>
   <si>
@@ -360,7 +360,7 @@
     <t>informationRecipient</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/information-recipient}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/information-recipient]]} {[]}
 </t>
   </si>
   <si>
@@ -392,7 +392,7 @@
     <t>Composition.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier
+    <t xml:space="preserve">Identifier {[]} {[]}
 </t>
   </si>
   <si>
@@ -451,7 +451,7 @@
     <t>Composition.type</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
+    <t xml:space="preserve">CodeableConcept {[]} {[]}
 </t>
   </si>
   <si>
@@ -515,7 +515,7 @@
     <t>Composition.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ihi-1)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ihi-1]]}
 </t>
   </si>
   <si>
@@ -543,7 +543,7 @@
     <t>Composition.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Encounter]]}
 </t>
   </si>
   <si>
@@ -568,7 +568,7 @@
     <t>Composition.date</t>
   </si>
   <si>
-    <t xml:space="preserve">dateTime
+    <t xml:space="preserve">dateTime {[]} {[]}
 </t>
   </si>
   <si>
@@ -596,7 +596,7 @@
     <t>Composition.author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ihi-1|http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/relatedperson-ihi-1)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ihi-1], CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/relatedperson-ihi-1]]}
 </t>
   </si>
   <si>
@@ -621,7 +621,7 @@
     <t>Composition.title</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">string {[]} {[]}
 </t>
   </si>
   <si>
@@ -665,7 +665,7 @@
     <t>Composition.attester</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement
+    <t xml:space="preserve">BackboneElement {[]} {[]}
 </t>
   </si>
   <si>
@@ -712,7 +712,7 @@
     <t>attesterRelatedParty</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/attester-related-party}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/attester-related-party]]} {[]}
 </t>
   </si>
   <si>
@@ -783,7 +783,7 @@
     <t>Composition.attester.party</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Practitioner|Organization)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Patient], CanonicalType[http://hl7.org/fhir/StructureDefinition/Practitioner], CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization]]}
 </t>
   </si>
   <si>
@@ -808,7 +808,7 @@
     <t>Composition.custodian</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/organization-ident-1)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/organization-ident-1]]}
 </t>
   </si>
   <si>
@@ -894,8 +894,8 @@
     <t>Composition.relatesTo.target[x]</t>
   </si>
   <si>
-    <t>Identifier
-Reference(Composition)</t>
+    <t>Identifier {[]} {[]}
+Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Composition]]}</t>
   </si>
   <si>
     <t>Target of the relationship</t>
@@ -961,7 +961,7 @@
     <t>Composition.event.period</t>
   </si>
   <si>
-    <t xml:space="preserve">Period
+    <t xml:space="preserve">Period {[]} {[]}
 </t>
   </si>
   <si>
@@ -974,7 +974,7 @@
     <t>Composition.event.detail</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Resource]]}
 </t>
   </si>
   <si>
@@ -1015,7 +1015,7 @@
     <t>sectionAuthor</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/section-author}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/section-author]]} {[]}
 </t>
   </si>
   <si>
@@ -1246,67 +1246,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
   </borders>
@@ -1342,7 +1342,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL57"/>
+  <dimension ref="A1:AM57"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>

--- a/output/PersonalHealthRecords/composition-docheader-cei-1.xlsx
+++ b/output/PersonalHealthRecords/composition-docheader-cei-1.xlsx
@@ -174,7 +174,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id {[]} {[]}
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -193,7 +193,7 @@
     <t>Composition.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {[]} {[]}
+    <t xml:space="preserve">Meta
 </t>
   </si>
   <si>
@@ -209,7 +209,7 @@
     <t>Composition.implicitRules</t>
   </si>
   <si>
-    <t xml:space="preserve">uri {[]} {[]}
+    <t xml:space="preserve">uri
 </t>
   </si>
   <si>
@@ -229,7 +229,7 @@
     <t>Composition.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code {[]} {[]}
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
@@ -242,7 +242,7 @@
     <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
-    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="en-AU"/&gt;</t>
+    <t>en-AU</t>
   </si>
   <si>
     <t>extensible</t>
@@ -264,7 +264,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
+    <t xml:space="preserve">Narrative
 </t>
   </si>
   <si>
@@ -294,7 +294,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource {[]} {[]}
+    <t xml:space="preserve">Resource
 </t>
   </si>
   <si>
@@ -316,7 +316,7 @@
     <t>Composition.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
@@ -339,7 +339,7 @@
     <t>compositionAuthorRole</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/composition-author-role]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/composition-author-role}
 </t>
   </si>
   <si>
@@ -360,7 +360,7 @@
     <t>informationRecipient</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/information-recipient]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/information-recipient}
 </t>
   </si>
   <si>
@@ -392,7 +392,7 @@
     <t>Composition.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
+    <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
@@ -451,7 +451,7 @@
     <t>Composition.type</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
@@ -515,7 +515,7 @@
     <t>Composition.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ihi-1]]}
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ihi-1)
 </t>
   </si>
   <si>
@@ -543,7 +543,7 @@
     <t>Composition.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Encounter]]}
+    <t xml:space="preserve">Reference(Encounter)
 </t>
   </si>
   <si>
@@ -568,7 +568,7 @@
     <t>Composition.date</t>
   </si>
   <si>
-    <t xml:space="preserve">dateTime {[]} {[]}
+    <t xml:space="preserve">dateTime
 </t>
   </si>
   <si>
@@ -596,7 +596,7 @@
     <t>Composition.author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ihi-1], CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/relatedperson-ihi-1]]}
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ihi-1|http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/relatedperson-ihi-1)
 </t>
   </si>
   <si>
@@ -621,7 +621,7 @@
     <t>Composition.title</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -665,7 +665,7 @@
     <t>Composition.attester</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement {[]} {[]}
+    <t xml:space="preserve">BackboneElement
 </t>
   </si>
   <si>
@@ -712,7 +712,7 @@
     <t>attesterRelatedParty</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/attester-related-party]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/attester-related-party}
 </t>
   </si>
   <si>
@@ -783,7 +783,7 @@
     <t>Composition.attester.party</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Patient], CanonicalType[http://hl7.org/fhir/StructureDefinition/Practitioner], CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization]]}
+    <t xml:space="preserve">Reference(Patient|Practitioner|Organization)
 </t>
   </si>
   <si>
@@ -808,7 +808,7 @@
     <t>Composition.custodian</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/organization-ident-1]]}
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/organization-ident-1)
 </t>
   </si>
   <si>
@@ -894,8 +894,8 @@
     <t>Composition.relatesTo.target[x]</t>
   </si>
   <si>
-    <t>Identifier {[]} {[]}
-Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Composition]]}</t>
+    <t>Identifier
+Reference(Composition)</t>
   </si>
   <si>
     <t>Target of the relationship</t>
@@ -961,7 +961,7 @@
     <t>Composition.event.period</t>
   </si>
   <si>
-    <t xml:space="preserve">Period {[]} {[]}
+    <t xml:space="preserve">Period
 </t>
   </si>
   <si>
@@ -974,7 +974,7 @@
     <t>Composition.event.detail</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Resource]]}
+    <t xml:space="preserve">Reference(Resource)
 </t>
   </si>
   <si>
@@ -1015,7 +1015,7 @@
     <t>sectionAuthor</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/section-author]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/section-author}
 </t>
   </si>
   <si>
@@ -1246,67 +1246,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
   </borders>
@@ -1342,7 +1342,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM57"/>
+  <dimension ref="A1:AL57"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
